--- a/data/trans_bre/P07_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P07_R-Estudios-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>13.37947404439702</v>
+        <v>13.26480415925669</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>8.024422679317302</v>
+        <v>7.124970858290766</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7.704928212575676</v>
+        <v>8.010039046761321</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>9.866181905130301</v>
+        <v>9.8286188084982</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.3917688218768758</v>
+        <v>0.3744793354731348</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2147752892893256</v>
+        <v>0.1907086428681027</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2132879656184282</v>
+        <v>0.2226152396144352</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.2429946876523873</v>
+        <v>0.2416173112196137</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>21.42688944708841</v>
+        <v>21.55298032835266</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>16.36251076780803</v>
+        <v>15.56078728264365</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>16.77268900596004</v>
+        <v>17.50779130265953</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>19.16332464018947</v>
+        <v>19.054820031696</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.7248674233082606</v>
+        <v>0.7155282099142593</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5079193481676377</v>
+        <v>0.4819475407570042</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5443708087205841</v>
+        <v>0.5718119583096298</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.5603188165624923</v>
+        <v>0.5563285006688847</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>4.895402653353615</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>3.749430198145987</v>
+        <v>3.749430198145981</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9633846283504073</v>
@@ -749,7 +749,7 @@
         <v>0.4039011157481443</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.2625456440214835</v>
+        <v>0.2625456440214831</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>5.392649425547282</v>
+        <v>5.285873730301685</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>3.633774189740319</v>
+        <v>3.858307412952148</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2.583727500848295</v>
+        <v>2.549600534820168</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1.603894919593413</v>
+        <v>1.7327857397582</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.5980410280646495</v>
+        <v>0.6062644696688224</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3131393195104552</v>
+        <v>0.3548667917764948</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1961760273331443</v>
+        <v>0.1986044565376161</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1067096151908781</v>
+        <v>0.1062319344552446</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>9.969216175669615</v>
+        <v>9.921341415961297</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>8.352157184581477</v>
+        <v>8.371625378120921</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7.195209018336519</v>
+        <v>7.063588537569417</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5.892945806433687</v>
+        <v>5.734746871723228</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.442837696248826</v>
+        <v>1.405322904128992</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.8975761021395342</v>
+        <v>0.9257892389989512</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6575515535506095</v>
+        <v>0.650104683215592</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.4562699969383235</v>
+        <v>0.4298004039299044</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>4.23958689365954</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.8301181107321907</v>
+        <v>0.8301181107321933</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7085070132702908</v>
@@ -849,7 +849,7 @@
         <v>0.7372047579113974</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.07935916736000205</v>
+        <v>0.07935916736000233</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.899189177050524</v>
+        <v>1.55454546481469</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.282592670784651</v>
+        <v>-2.514548778156854</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7833505409619504</v>
+        <v>0.6298823780066642</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.37951283657006</v>
+        <v>-2.31990696010032</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.164876592463639</v>
+        <v>0.1244222075225115</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.3011090828944078</v>
+        <v>-0.3287582138465056</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.09691286504562953</v>
+        <v>0.08102440785754148</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.193767313105222</v>
+        <v>-0.1919928315312328</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>10.02366459419983</v>
+        <v>10.00183903204301</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.332855307106428</v>
+        <v>5.462416463440756</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.385496020847834</v>
+        <v>7.81419513583753</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.583028636225187</v>
+        <v>4.11378038864633</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.4618784605146</v>
+        <v>1.48828582767582</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.321315759676085</v>
+        <v>1.3004093306549</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.706232818283356</v>
+        <v>1.872446257990977</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.4203718081074541</v>
+        <v>0.475929476263092</v>
       </c>
     </row>
     <row r="13">
@@ -949,7 +949,7 @@
         <v>0.5172936311098685</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.3978232183453434</v>
+        <v>0.3978232183453432</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>10.9779696096485</v>
+        <v>11.08851145908401</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>8.120814262396696</v>
+        <v>7.910334537169093</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>6.06643039318868</v>
+        <v>6.159746090082936</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>5.173014331604153</v>
+        <v>5.234817529960695</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.6584149523778395</v>
+        <v>0.6710372194042798</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4608447534590135</v>
+        <v>0.4411077037234851</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3561988526836484</v>
+        <v>0.3645978457670043</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.2826345022095382</v>
+        <v>0.286656619256404</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>14.87898818551388</v>
+        <v>15.20256152123597</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>12.16919496956841</v>
+        <v>12.15104880646732</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>9.958786069558039</v>
+        <v>10.07321934256974</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>8.519126039466682</v>
+        <v>8.663989420256863</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.00731200802195</v>
+        <v>1.039254423009715</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.7729643037507631</v>
+        <v>0.7717281761011064</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.6634563389672844</v>
+        <v>0.67933531630336</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.5291333966220545</v>
+        <v>0.5295691556605724</v>
       </c>
     </row>
     <row r="16">
